--- a/natmiOut/OldD0/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H2">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I2">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J2">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N2">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O2">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P2">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q2">
-        <v>373.1908112820167</v>
+        <v>756.1140006026101</v>
       </c>
       <c r="R2">
-        <v>373.1908112820167</v>
+        <v>6805.02600542349</v>
       </c>
       <c r="S2">
-        <v>0.3217510361405225</v>
+        <v>0.3922037066831501</v>
       </c>
       <c r="T2">
-        <v>0.3217510361405225</v>
+        <v>0.39220370668315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H3">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I3">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J3">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N3">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P3">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q3">
-        <v>63.318807573607</v>
+        <v>80.33369146760599</v>
       </c>
       <c r="R3">
-        <v>63.318807573607</v>
+        <v>723.0032232084538</v>
       </c>
       <c r="S3">
-        <v>0.05459108672585944</v>
+        <v>0.04166986927900414</v>
       </c>
       <c r="T3">
-        <v>0.05459108672585944</v>
+        <v>0.04166986927900413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2432589255992</v>
+        <v>24.916566</v>
       </c>
       <c r="H4">
-        <v>20.2432589255992</v>
+        <v>74.749698</v>
       </c>
       <c r="I4">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="J4">
-        <v>0.4097028038315105</v>
+        <v>0.459912889255076</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N4">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O4">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P4">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q4">
-        <v>38.69420202538037</v>
+        <v>50.20016132270199</v>
       </c>
       <c r="R4">
-        <v>38.69420202538037</v>
+        <v>451.801451904318</v>
       </c>
       <c r="S4">
-        <v>0.03336068096512852</v>
+        <v>0.0260393132929218</v>
       </c>
       <c r="T4">
-        <v>0.03336068096512852</v>
+        <v>0.0260393132929218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H5">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I5">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J5">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N5">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O5">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P5">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q5">
-        <v>361.1952869026726</v>
+        <v>594.8695046577834</v>
       </c>
       <c r="R5">
-        <v>361.1952869026726</v>
+        <v>5353.82554192005</v>
       </c>
       <c r="S5">
-        <v>0.3114089476393504</v>
+        <v>0.3085646139783259</v>
       </c>
       <c r="T5">
-        <v>0.3114089476393504</v>
+        <v>0.3085646139783259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H6">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I6">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J6">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N6">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O6">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P6">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q6">
-        <v>61.28354229654684</v>
+        <v>63.20219333669222</v>
       </c>
       <c r="R6">
-        <v>61.28354229654684</v>
+        <v>568.8197400302299</v>
       </c>
       <c r="S6">
-        <v>0.05283635779921374</v>
+        <v>0.0327835941106765</v>
       </c>
       <c r="T6">
-        <v>0.05283635779921374</v>
+        <v>0.03278359411067649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5925770261033</v>
+        <v>19.60300333333333</v>
       </c>
       <c r="H7">
-        <v>19.5925770261033</v>
+        <v>58.80901</v>
       </c>
       <c r="I7">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="J7">
-        <v>0.3965336693751624</v>
+        <v>0.3618345281251927</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N7">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O7">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P7">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q7">
-        <v>37.4504488843526</v>
+        <v>39.49476544010111</v>
       </c>
       <c r="R7">
-        <v>37.4504488843526</v>
+        <v>355.45288896091</v>
       </c>
       <c r="S7">
-        <v>0.03228836393659829</v>
+        <v>0.02048632003619026</v>
       </c>
       <c r="T7">
-        <v>0.03228836393659829</v>
+        <v>0.02048632003619026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H8">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I8">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J8">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N8">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O8">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P8">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q8">
-        <v>176.4956624280369</v>
+        <v>293.0539163202301</v>
       </c>
       <c r="R8">
-        <v>176.4956624280369</v>
+        <v>2637.48524688207</v>
       </c>
       <c r="S8">
-        <v>0.1521679005585561</v>
+        <v>0.1520099246240715</v>
       </c>
       <c r="T8">
-        <v>0.1521679005585561</v>
+        <v>0.1520099246240715</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H9">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I9">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J9">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N9">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O9">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P9">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q9">
-        <v>29.94579327520461</v>
+        <v>31.135652663858</v>
       </c>
       <c r="R9">
-        <v>29.94579327520461</v>
+        <v>280.220873974722</v>
       </c>
       <c r="S9">
-        <v>0.02581813303829131</v>
+        <v>0.01615036671061748</v>
       </c>
       <c r="T9">
-        <v>0.02581813303829131</v>
+        <v>0.01615036671061748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.57378179141698</v>
+        <v>9.657138000000002</v>
       </c>
       <c r="H10">
-        <v>9.57378179141698</v>
+        <v>28.971414</v>
       </c>
       <c r="I10">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="J10">
-        <v>0.1937635267933271</v>
+        <v>0.1782525826197313</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N10">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O10">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P10">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q10">
-        <v>18.29991149871297</v>
+        <v>19.456528861786</v>
       </c>
       <c r="R10">
-        <v>18.29991149871297</v>
+        <v>175.108759756074</v>
       </c>
       <c r="S10">
-        <v>0.0157774931964797</v>
+        <v>0.01009229128504226</v>
       </c>
       <c r="T10">
-        <v>0.0157774931964797</v>
+        <v>0.01009229128504226</v>
       </c>
     </row>
   </sheetData>
